--- a/11210-김태호.xlsx
+++ b/11210-김태호.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="제1작업" sheetId="1" r:id="rId1"/>
     <sheet name="제2작업" sheetId="2" r:id="rId2"/>
-    <sheet name="제3작업" sheetId="3" r:id="rId3"/>
-    <sheet name="제4작업" sheetId="5" r:id="rId4"/>
+    <sheet name="제3작업" sheetId="9" r:id="rId3"/>
+    <sheet name="제4작업" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$15</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
     <definedName name="분류">제1작업!$D$5:$D$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="22" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,250 +36,212 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
-  <si>
-    <t>관리코드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>하스스톤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>피파 온라인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>크로스파이어</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>림월드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>리그 오브 레전드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>월드 오브 탱크</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>던전 앤 파이터</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>메이플스토리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시래기된장밥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구운폴렌타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감바스피칸테</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공심채볶음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관서식스키야키</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비건버섯라자냐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>춘천식닭갈비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산채나물비빔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>분류</t>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>역할수행</t>
-  </si>
-  <si>
-    <t>역할수행</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아케이드</t>
-  </si>
-  <si>
-    <t>아케이드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아케이드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시뮬레이션</t>
-  </si>
-  <si>
-    <t>시뮬레이션</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시뮬레이션</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아케이드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>역할수행</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>역할수행</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발사</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>블리자드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스피어헤드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스마일게이트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>루데온스튜디오</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아리엇게임즈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>워게이밍넷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>네오플</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>위젯스튜디오</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수익금
-(백만 달러)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>만족도</t>
-  </si>
-  <si>
-    <t>만족도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스 시작일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스
-순서</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작연도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>최고 수익금(백만 달러)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아케이드 게임의 평균 수익금(백만 달러)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>역할수행 게임의 만족도 합계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C14-9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S81-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F57-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M32-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M29-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M62-9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R55-5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M43-4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>글루텐프리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저탄수화물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저탄수화물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>글루텐프리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출시일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격
+(단위:원)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조공장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채식 제품 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 판매수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정월대비
+성장률(%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저탄수화물 전월대비 성장률(%) 평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K3237</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2891</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1237</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2912</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1028</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E3019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K1456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K2234</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K3237</t>
+  </si>
+  <si>
+    <t>K*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행 레이블</t>
   </si>
   <si>
     <t>총합계</t>
   </si>
   <si>
-    <t>개수 : 게임명</t>
-  </si>
-  <si>
-    <t>평균 : 수익금(백만 달러)</t>
-  </si>
-  <si>
-    <t>4.1-4.4</t>
-  </si>
-  <si>
-    <t>4.4-4.7</t>
-  </si>
-  <si>
-    <t>4.7-5</t>
-  </si>
-  <si>
-    <t>***</t>
-  </si>
-  <si>
-    <t>&lt;&gt;시뮬레이션</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M32-2</t>
+    <t>글루텐프리</t>
+  </si>
+  <si>
+    <t>저탄수화물</t>
+  </si>
+  <si>
+    <t>채식</t>
+  </si>
+  <si>
+    <t>개수 : 제품명</t>
+  </si>
+  <si>
+    <t>평균 : 정월대비(%)</t>
+  </si>
+  <si>
+    <t>1-10000</t>
+  </si>
+  <si>
+    <t>10001-20000</t>
+  </si>
+  <si>
+    <t>20001-30000</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="General&quot;점&quot;"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="#,###&quot;박스&quot;"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="0.0_ "/>
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -341,6 +303,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -460,6 +457,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
         <color indexed="64"/>
@@ -467,10 +509,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal style="thin">
@@ -487,133 +529,226 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal style="thin">
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="36">
     <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
@@ -631,10 +766,280 @@
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="179" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="179" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="179" formatCode="0_ "/>
+    </dxf>
+    <dxf>
       <font>
         <name val="굴림"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -684,42 +1089,39 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
-              <a:t>역할수행</a:t>
+              <a:rPr lang="ko-KR" sz="2000" b="1"/>
+              <a:t>채식 및 저탄수화물 판매 현황</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>/</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
-              <a:t>아케이드 게임 현황</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+            <a:endParaRPr lang="en-US" sz="2000" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37742018919301179"/>
+          <c:y val="9.5597484907954805E-3"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst/>
@@ -729,15 +1131,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -747,7 +1146,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.7640761167886762E-2"/>
+          <c:y val="7.9903564468898888E-2"/>
+          <c:w val="0.88683597373777145"/>
+          <c:h val="0.82788751764068413"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -761,7 +1170,8 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>만족도</c:v>
+                  <c:v>가격
+(단위:원)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -778,60 +1188,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(제1작업!$C$5:$C$7,제1작업!$C$10:$C$12)</c:f>
+              <c:f>(제1작업!$C$5,제1작업!$C$7:$C$9,제1작업!$C$11:$C$12)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>하스스톤</c:v>
+                  <c:v>시래기된장밥</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>피파 온라인</c:v>
+                  <c:v>감바스피칸테</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>크로스파이어</c:v>
+                  <c:v>공심채볶음</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>월드 오브 탱크</c:v>
+                  <c:v>관서식스키야키</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>던전 앤 파이터</c:v>
+                  <c:v>춘천식닭갈비</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>메이플스토리</c:v>
+                  <c:v>산채나물비빔</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(제1작업!$G$5:$G$7,제1작업!$G$10:$G$12)</c:f>
+              <c:f>(제1작업!$G$5,제1작업!$G$7:$G$9,제1작업!$G$11:$G$12)</c:f>
               <c:numCache>
-                <c:formatCode>General"점"</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2</c:v>
+                  <c:v>19000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8</c:v>
+                  <c:v>6900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9000000000000004</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2</c:v>
+                  <c:v>13000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>8600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-51F3-41FA-9B83-9D2F6443919A}"/>
+              <c16:uniqueId val="{00000000-3F7C-48D3-94C7-14AE570075A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -844,8 +1254,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="319557136"/>
-        <c:axId val="319557552"/>
+        <c:axId val="609393488"/>
+        <c:axId val="609388912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -854,7 +1264,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>수익금(백만 달러)</c:v>
+            <c:strRef>
+              <c:f>제1작업!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>판매수량</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -866,7 +1284,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
+            <c:symbol val="triangle"/>
             <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
@@ -882,7 +1300,8 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="1"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -891,9 +1310,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-498A-4C5F-BAFA-BF4819B397F9}"/>
+                  <c16:uniqueId val="{00000003-3F7C-48D3-94C7-14AE570075A0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -911,15 +1332,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
+                    <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
@@ -954,53 +1372,53 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(제1작업!$C$5:$C$7,제1작업!$C$10:$C$12)</c:f>
+              <c:f>(제1작업!$C$5,제1작업!$C$7:$C$9,제1작업!$C$11:$C$12)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>하스스톤</c:v>
+                  <c:v>시래기된장밥</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>피파 온라인</c:v>
+                  <c:v>감바스피칸테</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>크로스파이어</c:v>
+                  <c:v>공심채볶음</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>월드 오브 탱크</c:v>
+                  <c:v>관서식스키야키</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>던전 앤 파이터</c:v>
+                  <c:v>춘천식닭갈비</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>메이플스토리</c:v>
+                  <c:v>산채나물비빔</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(제1작업!$F$5:$F$7,제1작업!$F$10:$F$12)</c:f>
+              <c:f>(제1작업!$E$5,제1작업!$E$7:$E$9,제1작업!$E$11:$E$12)</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:formatCode>#,###"박스"</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>219</c:v>
+                  <c:v>90680</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>163</c:v>
+                  <c:v>78000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1400</c:v>
+                  <c:v>6749</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>471</c:v>
+                  <c:v>5086</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600</c:v>
+                  <c:v>94650</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>284</c:v>
+                  <c:v>5010</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,7 +1426,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-51F3-41FA-9B83-9D2F6443919A}"/>
+              <c16:uniqueId val="{00000001-3F7C-48D3-94C7-14AE570075A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1022,11 +1440,65 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="318845168"/>
-        <c:axId val="409101024"/>
+        <c:axId val="609389328"/>
+        <c:axId val="755424912"/>
       </c:lineChart>
+      <c:valAx>
+        <c:axId val="755424912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,###&quot;박스&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="609389328"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20000"/>
+      </c:valAx>
       <c:catAx>
-        <c:axId val="319557136"/>
+        <c:axId val="609389328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1040,7 +1512,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1051,22 +1523,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319557552"/>
+        <c:crossAx val="755424912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1074,25 +1543,13 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319557552"/>
+        <c:axId val="609388912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General&quot;점&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1100,7 +1557,7 @@
           <a:noFill/>
           <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:ln>
           <a:effectLst/>
@@ -1110,72 +1567,24 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319557136"/>
+        <c:crossAx val="609393488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="409101024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="318845168"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="400"/>
-      </c:valAx>
       <c:catAx>
-        <c:axId val="318845168"/>
+        <c:axId val="609393488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1185,7 +1594,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="409101024"/>
+        <c:crossAx val="609388912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1204,16 +1613,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.35917373474632697"/>
-          <c:y val="0.92638165875396927"/>
-          <c:w val="0.26742717751821726"/>
-          <c:h val="6.6436119224885556E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1227,15 +1627,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -1268,7 +1665,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ko-KR"/>
     </a:p>
@@ -1837,7 +2240,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="202" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1846,163 +2249,12 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>35093</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>25065</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>75198</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>145381</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="육각형 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="160422" y="25065"/>
-          <a:ext cx="4727408" cy="461211"/>
-        </a:xfrm>
-        <a:prstGeom prst="hexagon">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>온라인 게임 수익 현황</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>20051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>686804</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>151146</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5479383" y="20051"/>
-          <a:ext cx="2356184" cy="471990"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8034950" cy="5304765"/>
+    <xdr:ext cx="14076947" cy="7970921"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="차트 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -2022,42 +2274,36 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.75469</cdr:x>
-      <cdr:y>0.11822</cdr:y>
+      <cdr:x>0.28649</cdr:x>
+      <cdr:y>0.16272</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.89085</cdr:x>
-      <cdr:y>0.20622</cdr:y>
+      <cdr:x>0.38727</cdr:x>
+      <cdr:y>0.21993</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="말풍선: 모서리가 둥근 사각형 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8AF18F-35BE-4AFC-BAA1-9DC12A4F72A0}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
+        <cdr:cNvPr id="2" name="모서리가 둥근 사각형 설명선 1"/>
         <cdr:cNvSpPr/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6063935" y="627141"/>
-          <a:ext cx="1093961" cy="466819"/>
+          <a:off x="4032926" y="1297021"/>
+          <a:ext cx="1418617" cy="455984"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -67161"/>
-            <a:gd name="adj2" fmla="val 90783"/>
+            <a:gd name="adj1" fmla="val -29865"/>
+            <a:gd name="adj2" fmla="val 68994"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:schemeClr val="bg1"/>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
         </a:solidFill>
       </cdr:spPr>
       <cdr:style>
@@ -2082,35 +2328,31 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US">
+            <a:rPr lang="en-US" altLang="ko-KR">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
             </a:rPr>
-            <a:t>최다</a:t>
+            <a:t>2</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t>주년 할인행사</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>수익금</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR">
+          <a:endParaRPr lang="en-US" altLang="ko-KR">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
           </a:endParaRPr>
         </a:p>
       </cdr:txBody>
@@ -2120,53 +2362,54 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="45055.644522106479" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Administrator" refreshedDate="45056.864181828707" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
   <cacheSource type="worksheet">
     <worksheetSource ref="B4:H12" sheet="제1작업"/>
   </cacheSource>
   <cacheFields count="7">
-    <cacheField name="관리코드" numFmtId="0">
+    <cacheField name="코드" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="게임명" numFmtId="0">
+    <cacheField name="제품명" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="분류" numFmtId="0">
       <sharedItems count="3">
-        <s v="역할수행"/>
-        <s v="아케이드"/>
-        <s v="시뮬레이션"/>
+        <s v="채식"/>
+        <s v="글루텐프리"/>
+        <s v="저탄수화물"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="개발사" numFmtId="0">
-      <sharedItems/>
+    <cacheField name="판매수량" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5009" maxValue="94650"/>
     </cacheField>
-    <cacheField name="수익금_x000a_(백만 달러)" numFmtId="41">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="163" maxValue="2120"/>
+    <cacheField name="출시일" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-07-08T00:00:00" maxDate="2021-11-01T00:00:00"/>
     </cacheField>
-    <cacheField name="만족도" numFmtId="176">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.2" maxValue="4.9000000000000004" count="7">
-        <n v="4.4000000000000004"/>
-        <n v="4.2"/>
-        <n v="4.8"/>
-        <n v="4.5"/>
-        <n v="4.3"/>
-        <n v="4.9000000000000004"/>
-        <n v="4.5999999999999996"/>
+    <cacheField name="가격_x000a_(단위:원)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6900" maxValue="25000" count="8">
+        <n v="12400"/>
+        <n v="12000"/>
+        <n v="19000"/>
+        <n v="6900"/>
+        <n v="25000"/>
+        <n v="15000"/>
+        <n v="13000"/>
+        <n v="8600"/>
       </sharedItems>
       <fieldGroup base="5">
-        <rangePr autoStart="0" autoEnd="0" startNum="4.0999999999999996" endNum="5" groupInterval="0.3"/>
+        <rangePr autoStart="0" autoEnd="0" startNum="1" endNum="30000" groupInterval="10000"/>
         <groupItems count="5">
-          <s v="&lt;4.1"/>
-          <s v="4.1-4.4"/>
-          <s v="4.4-4.7"/>
-          <s v="4.7-5"/>
-          <s v="&gt;5"/>
+          <s v="&lt;1"/>
+          <s v="1-10000"/>
+          <s v="10001-20000"/>
+          <s v="20001-30000"/>
+          <s v="&gt;30001"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
-    <cacheField name="서비스 시작일" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2003-04-29T00:00:00" maxDate="2014-01-15T00:00:00"/>
+    <cacheField name="정월대비_x000a_성장률(%)" numFmtId="181">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="10" maxValue="152"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2180,82 +2423,82 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
   <r>
-    <s v="C14-9"/>
-    <s v="하스스톤"/>
+    <s v="K3237"/>
+    <s v="시래기된장밥"/>
     <x v="0"/>
-    <s v="블리자드"/>
-    <n v="219"/>
+    <n v="90680"/>
+    <d v="2020-10-25T00:00:00"/>
     <x v="0"/>
-    <d v="2014-01-14T00:00:00"/>
+    <n v="15.7"/>
   </r>
   <r>
-    <s v="S81-2"/>
-    <s v="피파 온라인"/>
+    <s v="E2891"/>
+    <s v="구운폴렌타"/>
     <x v="1"/>
-    <s v="스피어헤드"/>
-    <n v="163"/>
+    <n v="7366"/>
+    <d v="2021-10-31T00:00:00"/>
     <x v="1"/>
-    <d v="2012-12-18T00:00:00"/>
+    <n v="152"/>
   </r>
   <r>
-    <s v="F57-1"/>
-    <s v="크로스파이어"/>
-    <x v="1"/>
-    <s v="스마일게이트"/>
-    <n v="1400"/>
+    <s v="E1237"/>
+    <s v="감바스피칸테"/>
     <x v="2"/>
-    <d v="2007-05-03T00:00:00"/>
+    <n v="78000"/>
+    <d v="2020-12-01T00:00:00"/>
+    <x v="2"/>
+    <n v="55"/>
   </r>
   <r>
-    <s v="M32-2"/>
-    <s v="림월드"/>
-    <x v="2"/>
-    <s v="루데온스튜디오"/>
-    <n v="179"/>
+    <s v="C2912"/>
+    <s v="공심채볶음"/>
+    <x v="0"/>
+    <n v="6749"/>
+    <d v="2021-07-08T00:00:00"/>
     <x v="3"/>
-    <d v="2013-11-04T00:00:00"/>
+    <n v="25"/>
   </r>
   <r>
-    <s v="M29-1"/>
-    <s v="리그 오브 레전드"/>
+    <s v="J1028"/>
+    <s v="관서식스키야키"/>
     <x v="2"/>
-    <s v="아리엇게임즈"/>
-    <n v="2120"/>
+    <n v="5086"/>
+    <d v="2021-05-10T00:00:00"/>
     <x v="4"/>
-    <d v="2009-10-27T00:00:00"/>
+    <n v="25"/>
   </r>
   <r>
-    <s v="M62-9"/>
-    <s v="월드 오브 탱크"/>
+    <s v="E3019"/>
+    <s v="비건버섯라자냐"/>
     <x v="1"/>
-    <s v="워게이밍넷"/>
-    <n v="471"/>
+    <n v="5009"/>
+    <d v="2021-10-05T00:00:00"/>
     <x v="5"/>
-    <d v="2010-08-12T00:00:00"/>
+    <n v="102.5"/>
   </r>
   <r>
-    <s v="R55-5"/>
-    <s v="던전 앤 파이터"/>
-    <x v="0"/>
-    <s v="네오플"/>
-    <n v="1600"/>
-    <x v="1"/>
-    <d v="2005-08-10T00:00:00"/>
+    <s v="K1456"/>
+    <s v="춘천식닭갈비"/>
+    <x v="2"/>
+    <n v="94650"/>
+    <d v="2020-07-08T00:00:00"/>
+    <x v="6"/>
+    <n v="10"/>
   </r>
   <r>
-    <s v="M43-4"/>
-    <s v="메이플스토리"/>
+    <s v="K2234"/>
+    <s v="산채나물비빔"/>
     <x v="0"/>
-    <s v="위젯스튜디오"/>
-    <n v="284"/>
-    <x v="6"/>
-    <d v="2003-04-29T00:00:00"/>
+    <n v="5010"/>
+    <d v="2021-01-05T00:00:00"/>
+    <x v="7"/>
+    <n v="30.5"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="***" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="만족도" colHeaderCaption="분류">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블5" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="">
   <location ref="B2:H8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -2263,14 +2506,14 @@
     <pivotField axis="axisCol" showAll="0">
       <items count="4">
         <item x="0"/>
+        <item x="2"/>
         <item x="1"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="41" showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="176" showAll="0">
+    <pivotField numFmtId="176" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
       <items count="6">
         <item x="0"/>
         <item x="1"/>
@@ -2280,7 +2523,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" numFmtId="181" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="5"/>
@@ -2327,12 +2570,176 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="개수 : 게임명" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="평균 : 수익금(백만 달러)" fld="4" subtotal="average" baseField="5" baseItem="0"/>
+    <dataField name="개수 : 제품명" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 정월대비(%)" fld="6" subtotal="average" baseField="5" baseItem="0"/>
   </dataFields>
-  <formats count="7">
+  <formats count="27">
+    <format dxfId="26">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="3">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea field="2" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea field="2" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea field="2" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea field="2" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
     <format dxfId="6">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="3">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
     <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
@@ -2353,14 +2760,15 @@
     <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
-          <reference field="4294967294" count="1" selected="0">
+          <reference field="4294967294" count="2" selected="0">
             <x v="0"/>
+            <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
             <x v="1"/>
           </reference>
           <reference field="5" count="1">
-            <x v="2"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -2369,13 +2777,13 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="2"/>
           </reference>
           <reference field="5" count="1">
-            <x v="2"/>
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -2390,7 +2798,7 @@
             <x v="2"/>
           </reference>
           <reference field="5" count="1">
-            <x v="3"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -2405,13 +2813,25 @@
             <x v="2"/>
           </reference>
           <reference field="5" count="1">
-            <x v="3"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -2419,11 +2839,21 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E22" totalsRowShown="0" headerRowBorderDxfId="32" tableBorderDxfId="33" totalsRowBorderDxfId="31">
+  <autoFilter ref="B18:E22"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="코드" dataDxfId="30"/>
+    <tableColumn id="2" name="제품명" dataDxfId="29"/>
+    <tableColumn id="3" name="가격_x000a_(단위:원)" dataDxfId="28"/>
+    <tableColumn id="4" name="정월대비_x000a_성장률(%)" dataDxfId="27"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2689,353 +3119,347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J19"/>
+  <dimension ref="B3:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E11" activeCellId="8" sqref="C4:C5 C7:C9 C11:C12 G4:G5 G7:G9 G11:G12 E4:E5 E7:E9 E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="15.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="14.75" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="16.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:10" ht="27" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="2:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>37</v>
+      <c r="F4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="17">
-        <v>219</v>
-      </c>
-      <c r="G5" s="16">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H5" s="10">
-        <v>41653</v>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="28">
+        <v>90680</v>
+      </c>
+      <c r="F5" s="8">
+        <v>44129</v>
+      </c>
+      <c r="G5" s="22">
+        <v>12400</v>
+      </c>
+      <c r="H5" s="38">
+        <v>15.7</v>
       </c>
       <c r="I5" s="7" t="str">
-        <f>IF(_xlfn.RANK.EQ(H5,$H$5:$H$12,1)&lt;=3,_xlfn.RANK.EQ(H5,H5:H12,1),"")</f>
-        <v/>
-      </c>
-      <c r="J5" s="5" t="str">
-        <f>YEAR(H5:H12)&amp;"년"</f>
-        <v>2014년</v>
+        <f>CHOOSE(MID(B5,2,1),"평택","정읍","진천")</f>
+        <v>진천</v>
+      </c>
+      <c r="J5" s="25">
+        <f>_xlfn.RANK.EQ(H5,$H$5:$H$12,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="17">
-        <v>163</v>
-      </c>
-      <c r="G6" s="16">
-        <v>4.2</v>
-      </c>
-      <c r="H6" s="10">
-        <v>41261</v>
-      </c>
-      <c r="I6" s="23" t="str">
-        <f t="shared" ref="I6:I12" si="0">IF(_xlfn.RANK.EQ(H6,$H$5:$H$12,1)&lt;=3,_xlfn.RANK.EQ(H6,H6:H13,1),"")</f>
-        <v/>
-      </c>
-      <c r="J6" s="5" t="str">
-        <f t="shared" ref="J6:J12" si="1">YEAR(H6:H13)&amp;"년"</f>
-        <v>2012년</v>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="28">
+        <v>7366</v>
+      </c>
+      <c r="F6" s="8">
+        <v>44500</v>
+      </c>
+      <c r="G6" s="22">
+        <v>12000</v>
+      </c>
+      <c r="H6" s="38">
+        <v>152</v>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" ref="I6:I12" si="0">CHOOSE(MID(B6,2,1),"평택","정읍","진천")</f>
+        <v>정읍</v>
+      </c>
+      <c r="J6" s="25">
+        <f t="shared" ref="J6:J12" si="1">_xlfn.RANK.EQ(H6,$H$5:$H$12,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1400</v>
-      </c>
-      <c r="G7" s="16">
-        <v>4.8</v>
-      </c>
-      <c r="H7" s="10">
-        <v>39205</v>
-      </c>
-      <c r="I7" s="23">
+      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="28">
+        <v>78000</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44166</v>
+      </c>
+      <c r="G7" s="22">
+        <v>19000</v>
+      </c>
+      <c r="H7" s="38">
+        <v>55</v>
+      </c>
+      <c r="I7" s="7" t="str">
         <f t="shared" si="0"/>
+        <v>평택</v>
+      </c>
+      <c r="J7" s="25">
+        <f t="shared" si="1"/>
         <v>3</v>
-      </c>
-      <c r="J7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>2007년</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="17">
-        <v>179</v>
-      </c>
-      <c r="G8" s="16">
-        <v>4.5</v>
-      </c>
-      <c r="H8" s="10">
-        <v>41582</v>
-      </c>
-      <c r="I8" s="23" t="str">
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="28">
+        <v>6749</v>
+      </c>
+      <c r="F8" s="8">
+        <v>44385</v>
+      </c>
+      <c r="G8" s="22">
+        <v>6900</v>
+      </c>
+      <c r="H8" s="38">
+        <v>25</v>
+      </c>
+      <c r="I8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J8" s="5" t="str">
+        <v>정읍</v>
+      </c>
+      <c r="J8" s="25">
         <f t="shared" si="1"/>
-        <v>2013년</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="17">
-        <v>2120</v>
-      </c>
-      <c r="G9" s="16">
-        <v>4.3</v>
-      </c>
-      <c r="H9" s="10">
-        <v>40113</v>
-      </c>
-      <c r="I9" s="23" t="str">
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="28">
+        <v>5086</v>
+      </c>
+      <c r="F9" s="8">
+        <v>44326</v>
+      </c>
+      <c r="G9" s="22">
+        <v>25000</v>
+      </c>
+      <c r="H9" s="38">
+        <v>25</v>
+      </c>
+      <c r="I9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J9" s="5" t="str">
+        <v>평택</v>
+      </c>
+      <c r="J9" s="25">
         <f t="shared" si="1"/>
-        <v>2009년</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="17">
-        <v>471</v>
-      </c>
-      <c r="G10" s="16">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H10" s="10">
-        <v>40402</v>
-      </c>
-      <c r="I10" s="23" t="str">
+      <c r="D10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="28">
+        <v>5009</v>
+      </c>
+      <c r="F10" s="8">
+        <v>44474</v>
+      </c>
+      <c r="G10" s="22">
+        <v>15000</v>
+      </c>
+      <c r="H10" s="38">
+        <v>102.5</v>
+      </c>
+      <c r="I10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J10" s="5" t="str">
+        <v>진천</v>
+      </c>
+      <c r="J10" s="25">
         <f t="shared" si="1"/>
-        <v>2010년</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="17">
-        <v>1600</v>
-      </c>
-      <c r="G11" s="16">
-        <v>4.2</v>
-      </c>
-      <c r="H11" s="10">
-        <v>38574</v>
-      </c>
-      <c r="I11" s="23">
+      <c r="D11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="28">
+        <v>94650</v>
+      </c>
+      <c r="F11" s="8">
+        <v>44020</v>
+      </c>
+      <c r="G11" s="22">
+        <v>13000</v>
+      </c>
+      <c r="H11" s="38">
+        <v>10</v>
+      </c>
+      <c r="I11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J11" s="5" t="str">
+        <v>평택</v>
+      </c>
+      <c r="J11" s="25">
         <f t="shared" si="1"/>
-        <v>2005년</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="4" t="s">
+    <row r="12" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="17">
-        <v>284</v>
-      </c>
-      <c r="G12" s="16">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H12" s="10">
-        <v>37740</v>
-      </c>
-      <c r="I12" s="23">
+      <c r="D12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="28">
+        <v>5010</v>
+      </c>
+      <c r="F12" s="8">
+        <v>44201</v>
+      </c>
+      <c r="G12" s="22">
+        <v>8600</v>
+      </c>
+      <c r="H12" s="38">
+        <v>30.5</v>
+      </c>
+      <c r="I12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="5" t="str">
+        <v>정읍</v>
+      </c>
+      <c r="J12" s="25">
         <f t="shared" si="1"/>
-        <v>2003년</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="24">
-        <f>MAX(F5:F12)</f>
-        <v>2120</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="5">
-        <f>DSUM(B4:H12,6,D4:D5)</f>
-        <v>13.200000000000001</v>
+      <c r="B13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="10" t="str">
+        <f>DCOUNTA(B4:H12,3,D4:D5)&amp;"개"</f>
+        <v>3개</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="27">
+        <f>MAX(E5:E12)</f>
+        <v>94650</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="25">
-        <f>SUMIF(분류,D6,F5:F12)/COUNTIF(분류,D6)</f>
-        <v>678</v>
-      </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="9" t="str">
-        <f>VLOOKUP(H14,B5:H12,4,FALSE)</f>
-        <v>루데온스튜디오</v>
+      <c r="B14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="26">
+        <f>SUMIF(분류,"저탄수화물",H5:H12)/COUNTIF(분류,"저탄수화물")</f>
+        <v>30</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="29">
+        <f>VLOOKUP(H14,B4:H12,4,0)</f>
+        <v>90680</v>
       </c>
     </row>
-    <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B13:D13"/>
@@ -3043,10 +3467,10 @@
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:I13"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B5:J5 J6:J13 B6:I12">
-    <cfRule type="expression" dxfId="8" priority="1">
-      <formula>$F5&gt;=1000</formula>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B5:J12">
+    <cfRule type="expression" dxfId="35" priority="1">
+      <formula>$E5&gt;=90000</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -3055,567 +3479,517 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="J6" formulaRange="1"/>
-  </ignoredErrors>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H20"/>
+  <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>35</v>
+      <c r="F2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="17">
-        <v>219</v>
-      </c>
-      <c r="G3" s="16">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H3" s="10">
-        <v>41653</v>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="28">
+        <v>90680</v>
+      </c>
+      <c r="F3" s="8">
+        <v>44129</v>
+      </c>
+      <c r="G3" s="22">
+        <v>12400</v>
+      </c>
+      <c r="H3" s="22">
+        <v>15.7</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="17">
-        <v>163</v>
-      </c>
-      <c r="G4" s="16">
-        <v>4.2</v>
-      </c>
-      <c r="H4" s="10">
-        <v>41261</v>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="28">
+        <v>7366</v>
+      </c>
+      <c r="F4" s="8">
+        <v>44500</v>
+      </c>
+      <c r="G4" s="22">
+        <v>12000</v>
+      </c>
+      <c r="H4" s="22">
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="17">
-        <v>1400</v>
-      </c>
-      <c r="G5" s="16">
-        <v>4.8</v>
-      </c>
-      <c r="H5" s="10">
-        <v>39205</v>
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="28">
+        <v>78000</v>
+      </c>
+      <c r="F5" s="8">
+        <v>44166</v>
+      </c>
+      <c r="G5" s="22">
+        <v>19000</v>
+      </c>
+      <c r="H5" s="22">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="17">
-        <v>179</v>
-      </c>
-      <c r="G6" s="16">
-        <v>4.5</v>
-      </c>
-      <c r="H6" s="10">
-        <v>41582</v>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="28">
+        <v>6749</v>
+      </c>
+      <c r="F6" s="8">
+        <v>44385</v>
+      </c>
+      <c r="G6" s="22">
+        <v>6900</v>
+      </c>
+      <c r="H6" s="22">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="17">
-        <v>2120</v>
-      </c>
-      <c r="G7" s="16">
-        <v>4.3</v>
-      </c>
-      <c r="H7" s="10">
-        <v>40113</v>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="28">
+        <v>5086</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44326</v>
+      </c>
+      <c r="G7" s="22">
+        <v>25000</v>
+      </c>
+      <c r="H7" s="22">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="17">
-        <v>471</v>
-      </c>
-      <c r="G8" s="16">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H8" s="10">
-        <v>40402</v>
+      <c r="D8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="28">
+        <v>5009</v>
+      </c>
+      <c r="F8" s="8">
+        <v>44474</v>
+      </c>
+      <c r="G8" s="22">
+        <v>15000</v>
+      </c>
+      <c r="H8" s="22">
+        <v>102.5</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="17">
-        <v>1600</v>
-      </c>
-      <c r="G9" s="16">
-        <v>4.2</v>
-      </c>
-      <c r="H9" s="10">
-        <v>38574</v>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="28">
+        <v>94650</v>
+      </c>
+      <c r="F9" s="8">
+        <v>44020</v>
+      </c>
+      <c r="G9" s="22">
+        <v>3000</v>
+      </c>
+      <c r="H9" s="22">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="17">
-        <v>284</v>
-      </c>
-      <c r="G10" s="16">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H10" s="10">
-        <v>37740</v>
+      <c r="D10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="28">
+        <v>5010</v>
+      </c>
+      <c r="F10" s="8">
+        <v>44201</v>
+      </c>
+      <c r="G10" s="22">
+        <v>8600</v>
+      </c>
+      <c r="H10" s="22">
+        <v>30.5</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>11</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="2:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="B18" s="11" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>35</v>
+      <c r="D18" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>43</v>
+      <c r="B19" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="17">
-        <v>1400</v>
-      </c>
-      <c r="E19" s="10">
-        <v>39205</v>
+        <v>2</v>
+      </c>
+      <c r="D19" s="22">
+        <v>12400</v>
+      </c>
+      <c r="E19" s="31">
+        <v>15.7</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>47</v>
+      <c r="B20" s="30" t="s">
+        <v>30</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="22">
+        <v>19000</v>
+      </c>
+      <c r="E20" s="31">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="17">
-        <v>1600</v>
-      </c>
-      <c r="E20" s="10">
-        <v>38574</v>
+      <c r="D21" s="22">
+        <v>3000</v>
+      </c>
+      <c r="E21" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="36">
+        <v>8600</v>
+      </c>
+      <c r="E22" s="37">
+        <v>30.5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:H10">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>$F3&gt;=1000</formula>
+    <cfRule type="expression" dxfId="34" priority="1">
+      <formula>$E3&gt;=90000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J19"/>
+  <dimension ref="B2:J8"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.25" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="C2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
       <c r="I2"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="33"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="5"/>
       <c r="I3"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>52</v>
+      <c r="B4" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
     </row>
     <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="21">
-        <v>1</v>
-      </c>
-      <c r="D5" s="21">
-        <v>1600</v>
-      </c>
-      <c r="E5" s="21">
-        <v>1</v>
-      </c>
-      <c r="F5" s="21">
-        <v>163</v>
-      </c>
-      <c r="G5" s="21">
-        <v>1</v>
-      </c>
-      <c r="H5" s="21">
-        <v>2120</v>
+      <c r="B5" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="44">
+        <v>2</v>
+      </c>
+      <c r="D5" s="44">
+        <v>27.75</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>49</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="21">
+      <c r="B6" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="44">
+        <v>1</v>
+      </c>
+      <c r="D6" s="44">
+        <v>15.7</v>
+      </c>
+      <c r="E6" s="44">
         <v>2</v>
       </c>
-      <c r="D6" s="21">
-        <v>251.5</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="21">
-        <v>1</v>
-      </c>
-      <c r="H6" s="21">
-        <v>179</v>
+      <c r="F6" s="44">
+        <v>32.5</v>
+      </c>
+      <c r="G6" s="44">
+        <v>2</v>
+      </c>
+      <c r="H6" s="44">
+        <v>127.25</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="21">
-        <v>2</v>
-      </c>
-      <c r="F7" s="21">
-        <v>935.5</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>56</v>
+      <c r="B7" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="44">
+        <v>1</v>
+      </c>
+      <c r="F7" s="44">
+        <v>25</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>49</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="21">
+      <c r="B8" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="40">
         <v>3</v>
       </c>
-      <c r="D8" s="21">
-        <v>701</v>
-      </c>
-      <c r="E8" s="21">
+      <c r="D8" s="41">
+        <v>23.733333333333334</v>
+      </c>
+      <c r="E8" s="40">
         <v>3</v>
       </c>
-      <c r="F8" s="21">
-        <v>678</v>
-      </c>
-      <c r="G8" s="21">
+      <c r="F8" s="40">
+        <v>30</v>
+      </c>
+      <c r="G8" s="40">
         <v>2</v>
       </c>
-      <c r="H8" s="21">
-        <v>1149.5</v>
+      <c r="H8" s="41">
+        <v>127.25</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3623,8 +3997,7 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/11210-김태호.xlsx
+++ b/11210-김태호.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="제1작업" sheetId="1" r:id="rId1"/>
     <sheet name="제2작업" sheetId="2" r:id="rId2"/>
-    <sheet name="제3작업" sheetId="9" r:id="rId3"/>
-    <sheet name="제4작업" sheetId="11" r:id="rId4"/>
+    <sheet name="제3작업" sheetId="3" r:id="rId3"/>
+    <sheet name="제4작업" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$15</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
     <definedName name="분류">제1작업!$D$5:$D$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,212 +36,250 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
-  <si>
-    <t>코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시래기된장밥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구운폴렌타</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>감바스피칸테</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공심채볶음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관서식스키야키</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비건버섯라자냐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>춘천식닭갈비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>산채나물비빔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
+  <si>
+    <t>관리코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>하스스톤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>피파 온라인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>크로스파이어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>림월드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>리그 오브 레전드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드 오브 탱크</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전 앤 파이터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이플스토리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>분류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매수량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>채식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>글루텐프리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저탄수화물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저탄수화물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>글루텐프리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>채식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출시일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격
-(단위:원)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제조공장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>순위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>채식 제품 수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 판매수량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매수량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정월대비
-성장률(%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저탄수화물 전월대비 성장률(%) 평균</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K3237</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E2891</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E1237</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2912</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>J1028</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E3019</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K1456</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K2234</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K3237</t>
-  </si>
-  <si>
-    <t>K*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=10000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>행 레이블</t>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할수행</t>
+  </si>
+  <si>
+    <t>역할수행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아케이드</t>
+  </si>
+  <si>
+    <t>아케이드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아케이드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시뮬레이션</t>
+  </si>
+  <si>
+    <t>시뮬레이션</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시뮬레이션</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아케이드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할수행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할수행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>블리자드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피어헤드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마일게이트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>루데온스튜디오</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리엇게임즈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>워게이밍넷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>네오플</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯스튜디오</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수익금
+(백만 달러)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>만족도</t>
+  </si>
+  <si>
+    <t>만족도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 시작일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스
+순서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작연도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고 수익금(백만 달러)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아케이드 게임의 평균 수익금(백만 달러)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할수행 게임의 만족도 합계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C14-9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S81-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F57-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M32-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M29-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M62-9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R55-5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M43-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=1000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>총합계</t>
   </si>
   <si>
-    <t>글루텐프리</t>
-  </si>
-  <si>
-    <t>저탄수화물</t>
-  </si>
-  <si>
-    <t>채식</t>
-  </si>
-  <si>
-    <t>개수 : 제품명</t>
-  </si>
-  <si>
-    <t>평균 : 정월대비(%)</t>
-  </si>
-  <si>
-    <t>1-10000</t>
-  </si>
-  <si>
-    <t>10001-20000</t>
-  </si>
-  <si>
-    <t>20001-30000</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t/>
+    <t>개수 : 게임명</t>
+  </si>
+  <si>
+    <t>평균 : 수익금(백만 달러)</t>
+  </si>
+  <si>
+    <t>4.1-4.4</t>
+  </si>
+  <si>
+    <t>4.4-4.7</t>
+  </si>
+  <si>
+    <t>4.7-5</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>&lt;&gt;시뮬레이션</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M32-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="#,###&quot;박스&quot;"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="181" formatCode="0.0_ "/>
-    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="General&quot;점&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -303,6 +341,173 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -310,7 +515,44 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -338,218 +580,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -557,327 +587,187 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="0_ "/>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="굴림"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="굴림"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="굴림"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="굴림"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="굴림"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="굴림"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="굴림"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="굴림"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="굴림"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="굴림"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="굴림"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="굴림"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="굴림"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="굴림"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="굴림"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="굴림"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="굴림"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -895,7 +785,8 @@
         <name val="굴림"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1020,7 +911,7 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -1040,6 +931,30 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1089,39 +1004,43 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ko-KR" sz="2000" b="1"/>
-              <a:t>채식 및 저탄수화물 판매 현황</a:t>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>역할수행</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2000" b="1"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>아케이드 게임 현황</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.37742018919301179"/>
-          <c:y val="9.5597484907954805E-3"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst/>
@@ -1131,12 +1050,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -1146,17 +1068,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.7640761167886762E-2"/>
-          <c:y val="7.9903564468898888E-2"/>
-          <c:w val="0.88683597373777145"/>
-          <c:h val="0.82788751764068413"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1170,8 +1082,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>가격
-(단위:원)</c:v>
+                  <c:v>만족도</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1188,60 +1099,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(제1작업!$C$5,제1작업!$C$7:$C$9,제1작업!$C$11:$C$12)</c:f>
+              <c:f>(제1작업!$C$5:$C$7,제1작업!$C$10:$C$12)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>시래기된장밥</c:v>
+                  <c:v>하스스톤</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>감바스피칸테</c:v>
+                  <c:v>피파 온라인</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>공심채볶음</c:v>
+                  <c:v>크로스파이어</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>관서식스키야키</c:v>
+                  <c:v>월드 오브 탱크</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>춘천식닭갈비</c:v>
+                  <c:v>던전 앤 파이터</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>산채나물비빔</c:v>
+                  <c:v>메이플스토리</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(제1작업!$G$5,제1작업!$G$7:$G$9,제1작업!$G$11:$G$12)</c:f>
+              <c:f>(제1작업!$G$5:$G$7,제1작업!$G$10:$G$12)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>General"점"</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12400</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19000</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6900</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25000</c:v>
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13000</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8600</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3F7C-48D3-94C7-14AE570075A0}"/>
+              <c16:uniqueId val="{00000000-51F3-41FA-9B83-9D2F6443919A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1254,8 +1165,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="609393488"/>
-        <c:axId val="609388912"/>
+        <c:axId val="319557136"/>
+        <c:axId val="319557552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1264,15 +1175,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>제1작업!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>판매수량</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>수익금(백만 달러)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1284,7 +1187,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
+            <c:symbol val="diamond"/>
             <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
@@ -1300,7 +1203,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="4"/>
               <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
@@ -1314,7 +1217,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-3F7C-48D3-94C7-14AE570075A0}"/>
+                  <c16:uniqueId val="{0000001A-498A-4C5F-BAFA-BF4819B397F9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1332,12 +1235,15 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-                    <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
@@ -1372,53 +1278,53 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(제1작업!$C$5,제1작업!$C$7:$C$9,제1작업!$C$11:$C$12)</c:f>
+              <c:f>(제1작업!$C$5:$C$7,제1작업!$C$10:$C$12)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>시래기된장밥</c:v>
+                  <c:v>하스스톤</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>감바스피칸테</c:v>
+                  <c:v>피파 온라인</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>공심채볶음</c:v>
+                  <c:v>크로스파이어</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>관서식스키야키</c:v>
+                  <c:v>월드 오브 탱크</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>춘천식닭갈비</c:v>
+                  <c:v>던전 앤 파이터</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>산채나물비빔</c:v>
+                  <c:v>메이플스토리</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(제1작업!$E$5,제1작업!$E$7:$E$9,제1작업!$E$11:$E$12)</c:f>
+              <c:f>(제1작업!$F$5:$F$7,제1작업!$F$10:$F$12)</c:f>
               <c:numCache>
-                <c:formatCode>#,###"박스"</c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>90680</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78000</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6749</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5086</c:v>
+                  <c:v>471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94650</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5010</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1426,7 +1332,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3F7C-48D3-94C7-14AE570075A0}"/>
+              <c16:uniqueId val="{00000001-51F3-41FA-9B83-9D2F6443919A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1440,65 +1346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="609389328"/>
-        <c:axId val="755424912"/>
+        <c:axId val="318845168"/>
+        <c:axId val="409101024"/>
       </c:lineChart>
-      <c:valAx>
-        <c:axId val="755424912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,###&quot;박스&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="609389328"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="20000"/>
-      </c:valAx>
       <c:catAx>
-        <c:axId val="609389328"/>
+        <c:axId val="319557136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1512,7 +1364,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1523,19 +1375,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="755424912"/>
+        <c:crossAx val="319557552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1543,13 +1398,25 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="609388912"/>
+        <c:axId val="319557552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General&quot;점&quot;" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1557,7 +1424,7 @@
           <a:noFill/>
           <a:ln>
             <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:ln>
           <a:effectLst/>
@@ -1567,24 +1434,72 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609393488"/>
+        <c:crossAx val="319557136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="409101024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="318845168"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="400"/>
+      </c:valAx>
       <c:catAx>
-        <c:axId val="609393488"/>
+        <c:axId val="318845168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1594,7 +1509,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="609388912"/>
+        <c:crossAx val="409101024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1613,7 +1528,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35917373474632697"/>
+          <c:y val="0.92638165875396927"/>
+          <c:w val="0.26742717751821726"/>
+          <c:h val="6.6436119224885556E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1627,12 +1551,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -1665,13 +1592,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1100">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-          <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="ko-KR"/>
     </a:p>
@@ -2240,7 +2161,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2249,12 +2170,163 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>35093</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>75198</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>145381</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="육각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="160422" y="25065"/>
+          <a:ext cx="4727408" cy="461211"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>온라인 게임 수익 현황</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>20051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>686804</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>151146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5479383" y="20051"/>
+          <a:ext cx="2356184" cy="471990"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="14076947" cy="7970921"/>
+    <xdr:ext cx="9306393" cy="6081947"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -2274,36 +2346,42 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28649</cdr:x>
-      <cdr:y>0.16272</cdr:y>
+      <cdr:x>0.75469</cdr:x>
+      <cdr:y>0.11822</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.38727</cdr:x>
-      <cdr:y>0.21993</cdr:y>
+      <cdr:x>0.89085</cdr:x>
+      <cdr:y>0.20622</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="모서리가 둥근 사각형 설명선 1"/>
+        <cdr:cNvPr id="2" name="말풍선: 모서리가 둥근 사각형 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8AF18F-35BE-4AFC-BAA1-9DC12A4F72A0}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvSpPr/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4032926" y="1297021"/>
-          <a:ext cx="1418617" cy="455984"/>
+          <a:off x="6063935" y="627141"/>
+          <a:ext cx="1093961" cy="466819"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -29865"/>
-            <a:gd name="adj2" fmla="val 68994"/>
+            <a:gd name="adj1" fmla="val -67161"/>
+            <a:gd name="adj2" fmla="val 90783"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </cdr:spPr>
       <cdr:style>
@@ -2328,31 +2406,35 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR">
+            <a:rPr lang="ko-KR" altLang="en-US">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>최다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
             </a:rPr>
-            <a:t>2</a:t>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
             </a:rPr>
-            <a:t>주년 할인행사</a:t>
+            <a:t>수익금</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR">
+          <a:endParaRPr lang="ko-KR">
             <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
-            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
           </a:endParaRPr>
         </a:p>
       </cdr:txBody>
@@ -2362,54 +2444,53 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Administrator" refreshedDate="45056.864181828707" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="45055.644522106479" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
   <cacheSource type="worksheet">
     <worksheetSource ref="B4:H12" sheet="제1작업"/>
   </cacheSource>
   <cacheFields count="7">
-    <cacheField name="코드" numFmtId="0">
+    <cacheField name="관리코드" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="제품명" numFmtId="0">
+    <cacheField name="게임명" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="분류" numFmtId="0">
       <sharedItems count="3">
-        <s v="채식"/>
-        <s v="글루텐프리"/>
-        <s v="저탄수화물"/>
+        <s v="역할수행"/>
+        <s v="아케이드"/>
+        <s v="시뮬레이션"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="판매수량" numFmtId="176">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5009" maxValue="94650"/>
+    <cacheField name="개발사" numFmtId="0">
+      <sharedItems/>
     </cacheField>
-    <cacheField name="출시일" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-07-08T00:00:00" maxDate="2021-11-01T00:00:00"/>
+    <cacheField name="수익금_x000a_(백만 달러)" numFmtId="41">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="163" maxValue="2120"/>
     </cacheField>
-    <cacheField name="가격_x000a_(단위:원)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6900" maxValue="25000" count="8">
-        <n v="12400"/>
-        <n v="12000"/>
-        <n v="19000"/>
-        <n v="6900"/>
-        <n v="25000"/>
-        <n v="15000"/>
-        <n v="13000"/>
-        <n v="8600"/>
+    <cacheField name="만족도" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.2" maxValue="4.9000000000000004" count="7">
+        <n v="4.4000000000000004"/>
+        <n v="4.2"/>
+        <n v="4.8"/>
+        <n v="4.5"/>
+        <n v="4.3"/>
+        <n v="4.9000000000000004"/>
+        <n v="4.5999999999999996"/>
       </sharedItems>
       <fieldGroup base="5">
-        <rangePr autoStart="0" autoEnd="0" startNum="1" endNum="30000" groupInterval="10000"/>
+        <rangePr autoStart="0" autoEnd="0" startNum="4.0999999999999996" endNum="5" groupInterval="0.3"/>
         <groupItems count="5">
-          <s v="&lt;1"/>
-          <s v="1-10000"/>
-          <s v="10001-20000"/>
-          <s v="20001-30000"/>
-          <s v="&gt;30001"/>
+          <s v="&lt;4.1"/>
+          <s v="4.1-4.4"/>
+          <s v="4.4-4.7"/>
+          <s v="4.7-5"/>
+          <s v="&gt;5"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
-    <cacheField name="정월대비_x000a_성장률(%)" numFmtId="181">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="10" maxValue="152"/>
+    <cacheField name="서비스 시작일" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2003-04-29T00:00:00" maxDate="2014-01-15T00:00:00"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2423,82 +2504,82 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
   <r>
-    <s v="K3237"/>
-    <s v="시래기된장밥"/>
+    <s v="C14-9"/>
+    <s v="하스스톤"/>
     <x v="0"/>
-    <n v="90680"/>
-    <d v="2020-10-25T00:00:00"/>
+    <s v="블리자드"/>
+    <n v="219"/>
     <x v="0"/>
-    <n v="15.7"/>
+    <d v="2014-01-14T00:00:00"/>
   </r>
   <r>
-    <s v="E2891"/>
-    <s v="구운폴렌타"/>
+    <s v="S81-2"/>
+    <s v="피파 온라인"/>
     <x v="1"/>
-    <n v="7366"/>
-    <d v="2021-10-31T00:00:00"/>
+    <s v="스피어헤드"/>
+    <n v="163"/>
     <x v="1"/>
-    <n v="152"/>
+    <d v="2012-12-18T00:00:00"/>
   </r>
   <r>
-    <s v="E1237"/>
-    <s v="감바스피칸테"/>
+    <s v="F57-1"/>
+    <s v="크로스파이어"/>
+    <x v="1"/>
+    <s v="스마일게이트"/>
+    <n v="1400"/>
     <x v="2"/>
-    <n v="78000"/>
-    <d v="2020-12-01T00:00:00"/>
-    <x v="2"/>
-    <n v="55"/>
+    <d v="2007-05-03T00:00:00"/>
   </r>
   <r>
-    <s v="C2912"/>
-    <s v="공심채볶음"/>
-    <x v="0"/>
-    <n v="6749"/>
-    <d v="2021-07-08T00:00:00"/>
+    <s v="M32-2"/>
+    <s v="림월드"/>
+    <x v="2"/>
+    <s v="루데온스튜디오"/>
+    <n v="179"/>
     <x v="3"/>
-    <n v="25"/>
+    <d v="2013-11-04T00:00:00"/>
   </r>
   <r>
-    <s v="J1028"/>
-    <s v="관서식스키야키"/>
+    <s v="M29-1"/>
+    <s v="리그 오브 레전드"/>
     <x v="2"/>
-    <n v="5086"/>
-    <d v="2021-05-10T00:00:00"/>
+    <s v="아리엇게임즈"/>
+    <n v="2120"/>
     <x v="4"/>
-    <n v="25"/>
+    <d v="2009-10-27T00:00:00"/>
   </r>
   <r>
-    <s v="E3019"/>
-    <s v="비건버섯라자냐"/>
+    <s v="M62-9"/>
+    <s v="월드 오브 탱크"/>
     <x v="1"/>
-    <n v="5009"/>
-    <d v="2021-10-05T00:00:00"/>
+    <s v="워게이밍넷"/>
+    <n v="471"/>
     <x v="5"/>
-    <n v="102.5"/>
+    <d v="2010-08-12T00:00:00"/>
   </r>
   <r>
-    <s v="K1456"/>
-    <s v="춘천식닭갈비"/>
-    <x v="2"/>
-    <n v="94650"/>
-    <d v="2020-07-08T00:00:00"/>
-    <x v="6"/>
-    <n v="10"/>
+    <s v="R55-5"/>
+    <s v="던전 앤 파이터"/>
+    <x v="0"/>
+    <s v="네오플"/>
+    <n v="1600"/>
+    <x v="1"/>
+    <d v="2005-08-10T00:00:00"/>
   </r>
   <r>
-    <s v="K2234"/>
-    <s v="산채나물비빔"/>
+    <s v="M43-4"/>
+    <s v="메이플스토리"/>
     <x v="0"/>
-    <n v="5010"/>
-    <d v="2021-01-05T00:00:00"/>
-    <x v="7"/>
-    <n v="30.5"/>
+    <s v="위젯스튜디오"/>
+    <n v="284"/>
+    <x v="6"/>
+    <d v="2003-04-29T00:00:00"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블5" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="***" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="만족도" colHeaderCaption="분류">
   <location ref="B2:H8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -2506,14 +2587,14 @@
     <pivotField axis="axisCol" showAll="0">
       <items count="4">
         <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="176" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="41" showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="176" showAll="0">
       <items count="6">
         <item x="0"/>
         <item x="1"/>
@@ -2523,7 +2604,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="181" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="5"/>
@@ -2570,178 +2651,14 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="개수 : 제품명" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="평균 : 정월대비(%)" fld="6" subtotal="average" baseField="5" baseItem="0"/>
+    <dataField name="개수 : 게임명" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 수익금(백만 달러)" fld="4" subtotal="average" baseField="5" baseItem="0"/>
   </dataFields>
-  <formats count="27">
-    <format dxfId="26">
+  <formats count="7">
+    <format dxfId="14">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="24">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="23">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="22">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
-    </format>
-    <format dxfId="21">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="20">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="19">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="5" count="3">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="18">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="17">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="16">
-      <pivotArea field="2" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="15">
-      <pivotArea field="2" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="14">
-      <pivotArea field="2" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
     <format dxfId="13">
-      <pivotArea field="2" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="12">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="11">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="10">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="9">
-      <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="8">
-      <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="6">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="5" count="3">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
@@ -2757,23 +2674,37 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
-          <reference field="4294967294" count="2" selected="0">
+          <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
             <x v="1"/>
           </reference>
           <reference field="5" count="1">
-            <x v="1"/>
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -2788,37 +2719,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
+    <format dxfId="9">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -2833,26 +2734,32 @@
         </references>
       </pivotArea>
     </format>
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E22" totalsRowShown="0" headerRowBorderDxfId="32" tableBorderDxfId="33" totalsRowBorderDxfId="31">
-  <autoFilter ref="B18:E22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E20" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="B18:E20"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="코드" dataDxfId="30"/>
-    <tableColumn id="2" name="제품명" dataDxfId="29"/>
-    <tableColumn id="3" name="가격_x000a_(단위:원)" dataDxfId="28"/>
-    <tableColumn id="4" name="정월대비_x000a_성장률(%)" dataDxfId="27"/>
+    <tableColumn id="1" name="관리코드" dataDxfId="4"/>
+    <tableColumn id="2" name="게임명" dataDxfId="3"/>
+    <tableColumn id="3" name="수익금_x000a_(백만 달러)" dataDxfId="2" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="4" name="서비스 시작일" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3119,347 +3026,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J14"/>
+  <dimension ref="B3:J19"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E11" activeCellId="8" sqref="C4:C5 C7:C9 C11:C12 G4:G5 G7:G9 G11:G12 E4:E5 E7:E9 E11:E12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="15.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="14.75" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="2:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="E4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="16">
+        <v>219</v>
+      </c>
+      <c r="G5" s="15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H5" s="9">
+        <v>41653</v>
+      </c>
+      <c r="I5" s="6" t="str">
+        <f>IF(_xlfn.RANK.EQ(H5,$H$5:$H$12,1)&lt;=3,_xlfn.RANK.EQ(H5,$H$5:$H$12,1),"")</f>
+        <v/>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f>YEAR(H5:H12)&amp;"년"</f>
+        <v>2014년</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="16">
+        <v>163</v>
+      </c>
+      <c r="G6" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="H6" s="9">
+        <v>41261</v>
+      </c>
+      <c r="I6" s="22" t="str">
+        <f t="shared" ref="I6:I12" si="0">IF(_xlfn.RANK.EQ(H6,$H$5:$H$12,1)&lt;=3,_xlfn.RANK.EQ(H6,$H$5:$H$12,1),"")</f>
+        <v/>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f t="shared" ref="J6:J12" si="1">YEAR(H6:H13)&amp;"년"</f>
+        <v>2012년</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1400</v>
+      </c>
+      <c r="G7" s="15">
+        <v>4.8</v>
+      </c>
+      <c r="H7" s="9">
+        <v>39205</v>
+      </c>
+      <c r="I7" s="22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>2007년</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="E8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="16">
+        <v>179</v>
+      </c>
+      <c r="G8" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="H8" s="9">
+        <v>41582</v>
+      </c>
+      <c r="I8" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>2013년</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="19" t="s">
+      <c r="E9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="16">
+        <v>2120</v>
+      </c>
+      <c r="G9" s="15">
+        <v>4.3</v>
+      </c>
+      <c r="H9" s="9">
+        <v>40113</v>
+      </c>
+      <c r="I9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>2009년</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="E10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="16">
+        <v>471</v>
+      </c>
+      <c r="G10" s="15">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H10" s="9">
+        <v>40402</v>
+      </c>
+      <c r="I10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>2010년</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1600</v>
+      </c>
+      <c r="G11" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="H11" s="9">
+        <v>38574</v>
+      </c>
+      <c r="I11" s="22">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="28">
-        <v>90680</v>
-      </c>
-      <c r="F5" s="8">
-        <v>44129</v>
-      </c>
-      <c r="G5" s="22">
-        <v>12400</v>
-      </c>
-      <c r="H5" s="38">
-        <v>15.7</v>
-      </c>
-      <c r="I5" s="7" t="str">
-        <f>CHOOSE(MID(B5,2,1),"평택","정읍","진천")</f>
-        <v>진천</v>
-      </c>
-      <c r="J5" s="25">
-        <f>_xlfn.RANK.EQ(H5,$H$5:$H$12,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="28">
-        <v>7366</v>
-      </c>
-      <c r="F6" s="8">
-        <v>44500</v>
-      </c>
-      <c r="G6" s="22">
-        <v>12000</v>
-      </c>
-      <c r="H6" s="38">
-        <v>152</v>
-      </c>
-      <c r="I6" s="7" t="str">
-        <f t="shared" ref="I6:I12" si="0">CHOOSE(MID(B6,2,1),"평택","정읍","진천")</f>
-        <v>정읍</v>
-      </c>
-      <c r="J6" s="25">
-        <f t="shared" ref="J6:J12" si="1">_xlfn.RANK.EQ(H6,$H$5:$H$12,0)</f>
+      <c r="J11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>2005년</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="16">
+        <v>284</v>
+      </c>
+      <c r="G12" s="15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H12" s="9">
+        <v>37740</v>
+      </c>
+      <c r="I12" s="22">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="28">
-        <v>78000</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44166</v>
-      </c>
-      <c r="G7" s="22">
-        <v>19000</v>
-      </c>
-      <c r="H7" s="38">
-        <v>55</v>
-      </c>
-      <c r="I7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>평택</v>
-      </c>
-      <c r="J7" s="25">
+      <c r="J12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="28">
-        <v>6749</v>
-      </c>
-      <c r="F8" s="8">
-        <v>44385</v>
-      </c>
-      <c r="G8" s="22">
-        <v>6900</v>
-      </c>
-      <c r="H8" s="38">
-        <v>25</v>
-      </c>
-      <c r="I8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>정읍</v>
-      </c>
-      <c r="J8" s="25">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="28">
-        <v>5086</v>
-      </c>
-      <c r="F9" s="8">
-        <v>44326</v>
-      </c>
-      <c r="G9" s="22">
-        <v>25000</v>
-      </c>
-      <c r="H9" s="38">
-        <v>25</v>
-      </c>
-      <c r="I9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>평택</v>
-      </c>
-      <c r="J9" s="25">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="28">
-        <v>5009</v>
-      </c>
-      <c r="F10" s="8">
-        <v>44474</v>
-      </c>
-      <c r="G10" s="22">
-        <v>15000</v>
-      </c>
-      <c r="H10" s="38">
-        <v>102.5</v>
-      </c>
-      <c r="I10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>진천</v>
-      </c>
-      <c r="J10" s="25">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="28">
-        <v>94650</v>
-      </c>
-      <c r="F11" s="8">
-        <v>44020</v>
-      </c>
-      <c r="G11" s="22">
-        <v>13000</v>
-      </c>
-      <c r="H11" s="38">
-        <v>10</v>
-      </c>
-      <c r="I11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>평택</v>
-      </c>
-      <c r="J11" s="25">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="28">
-        <v>5010</v>
-      </c>
-      <c r="F12" s="8">
-        <v>44201</v>
-      </c>
-      <c r="G12" s="22">
-        <v>8600</v>
-      </c>
-      <c r="H12" s="38">
-        <v>30.5</v>
-      </c>
-      <c r="I12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>정읍</v>
-      </c>
-      <c r="J12" s="25">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2003년</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="10" t="str">
-        <f>DCOUNTA(B4:H12,3,D4:D5)&amp;"개"</f>
-        <v>3개</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="16" t="s">
+      <c r="B13" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="23">
+        <f>MAX(F5:F12)</f>
+        <v>2120</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="5">
+        <f>DSUM(B4:H12,6,D4:D5)</f>
+        <v>13.200000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="24">
+        <f>SUMIF(분류,D6,F5:F12)/COUNTIF(분류,D6)</f>
+        <v>678</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="27">
-        <f>MAX(E5:E12)</f>
-        <v>94650</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="26">
-        <f>SUMIF(분류,"저탄수화물",H5:H12)/COUNTIF(분류,"저탄수화물")</f>
-        <v>30</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="29">
-        <f>VLOOKUP(H14,B4:H12,4,0)</f>
-        <v>90680</v>
-      </c>
-    </row>
+      <c r="J14" s="8" t="str">
+        <f>VLOOKUP(H14,B5:H12,4,FALSE)</f>
+        <v>루데온스튜디오</v>
+      </c>
+    </row>
+    <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B13:D13"/>
@@ -3467,10 +3380,10 @@
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:I13"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="35" priority="1">
-      <formula>$E5&gt;=90000</formula>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="B5:J5 J6:J13 B6:I12">
+    <cfRule type="expression" dxfId="16" priority="1">
+      <formula>$F5&gt;=1000</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -3479,331 +3392,304 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="J6" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H22"/>
+  <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="16">
+        <v>219</v>
+      </c>
+      <c r="G3" s="15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H3" s="9">
+        <v>41653</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="16">
+        <v>163</v>
+      </c>
+      <c r="G4" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>41261</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1400</v>
+      </c>
+      <c r="G5" s="15">
+        <v>4.8</v>
+      </c>
+      <c r="H5" s="9">
+        <v>39205</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="16">
+        <v>179</v>
+      </c>
+      <c r="G6" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="H6" s="9">
+        <v>41582</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="E7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="28">
-        <v>90680</v>
-      </c>
-      <c r="F3" s="8">
-        <v>44129</v>
-      </c>
-      <c r="G3" s="22">
-        <v>12400</v>
-      </c>
-      <c r="H3" s="22">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="F7" s="16">
+        <v>2120</v>
+      </c>
+      <c r="G7" s="15">
+        <v>4.3</v>
+      </c>
+      <c r="H7" s="9">
+        <v>40113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="28">
-        <v>7366</v>
-      </c>
-      <c r="F4" s="8">
-        <v>44500</v>
-      </c>
-      <c r="G4" s="22">
-        <v>12000</v>
-      </c>
-      <c r="H4" s="22">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="F8" s="16">
+        <v>471</v>
+      </c>
+      <c r="G8" s="15">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H8" s="9">
+        <v>40402</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="F9" s="16">
+        <v>1600</v>
+      </c>
+      <c r="G9" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="H9" s="9">
+        <v>38574</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="16">
+        <v>284</v>
+      </c>
+      <c r="G10" s="15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H10" s="9">
+        <v>37740</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="B18" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="28">
-        <v>78000</v>
-      </c>
-      <c r="F5" s="8">
-        <v>44166</v>
-      </c>
-      <c r="G5" s="22">
-        <v>19000</v>
-      </c>
-      <c r="H5" s="22">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="28">
-        <v>6749</v>
-      </c>
-      <c r="F6" s="8">
-        <v>44385</v>
-      </c>
-      <c r="G6" s="22">
-        <v>6900</v>
-      </c>
-      <c r="H6" s="22">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="28">
-        <v>5086</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44326</v>
-      </c>
-      <c r="G7" s="22">
-        <v>25000</v>
-      </c>
-      <c r="H7" s="22">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="28">
-        <v>5009</v>
-      </c>
-      <c r="F8" s="8">
-        <v>44474</v>
-      </c>
-      <c r="G8" s="22">
-        <v>15000</v>
-      </c>
-      <c r="H8" s="22">
-        <v>102.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="D19" s="16">
+        <v>1400</v>
+      </c>
+      <c r="E19" s="34">
+        <v>39205</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="28">
-        <v>94650</v>
-      </c>
-      <c r="F9" s="8">
-        <v>44020</v>
-      </c>
-      <c r="G9" s="22">
-        <v>3000</v>
-      </c>
-      <c r="H9" s="22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="28">
-        <v>5010</v>
-      </c>
-      <c r="F10" s="8">
-        <v>44201</v>
-      </c>
-      <c r="G10" s="22">
-        <v>8600</v>
-      </c>
-      <c r="H10" s="22">
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="22">
-        <v>12400</v>
-      </c>
-      <c r="E19" s="31">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="22">
-        <v>19000</v>
-      </c>
-      <c r="E20" s="31">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="22">
-        <v>3000</v>
-      </c>
-      <c r="E21" s="31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="36">
-        <v>8600</v>
-      </c>
-      <c r="E22" s="37">
-        <v>30.5</v>
+      <c r="D20" s="41">
+        <v>1600</v>
+      </c>
+      <c r="E20" s="42">
+        <v>38574</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B3:H10">
-    <cfRule type="expression" dxfId="34" priority="1">
-      <formula>$E3&gt;=90000</formula>
+    <cfRule type="expression" dxfId="15" priority="1">
+      <formula>$F3&gt;=1000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3815,181 +3701,260 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J8"/>
+  <dimension ref="B2:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="4"/>
-      <c r="C2" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
       <c r="I2"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="4"/>
-      <c r="C3" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="5"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="32"/>
       <c r="I3"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>45</v>
+      <c r="B4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
     </row>
     <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="44">
-        <v>2</v>
-      </c>
-      <c r="D5" s="44">
-        <v>27.75</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>49</v>
+      <c r="B5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1</v>
+      </c>
+      <c r="D5" s="20">
+        <v>1600</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1</v>
+      </c>
+      <c r="F5" s="20">
+        <v>163</v>
+      </c>
+      <c r="G5" s="20">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20">
+        <v>2120</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="44">
+      <c r="B6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="20">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20">
+        <v>251.5</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="20">
         <v>1</v>
       </c>
-      <c r="D6" s="44">
-        <v>15.7</v>
-      </c>
-      <c r="E6" s="44">
-        <v>2</v>
-      </c>
-      <c r="F6" s="44">
-        <v>32.5</v>
-      </c>
-      <c r="G6" s="44">
-        <v>2</v>
-      </c>
-      <c r="H6" s="44">
-        <v>127.25</v>
+      <c r="H6" s="20">
+        <v>179</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="44">
-        <v>1</v>
-      </c>
-      <c r="F7" s="44">
-        <v>25</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>49</v>
+      <c r="B7" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="20">
+        <v>2</v>
+      </c>
+      <c r="F7" s="20">
+        <v>935.5</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="40">
+      <c r="B8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="20">
         <v>3</v>
       </c>
-      <c r="D8" s="41">
-        <v>23.733333333333334</v>
-      </c>
-      <c r="E8" s="40">
+      <c r="D8" s="20">
+        <v>701</v>
+      </c>
+      <c r="E8" s="20">
         <v>3</v>
       </c>
-      <c r="F8" s="40">
-        <v>30</v>
-      </c>
-      <c r="G8" s="40">
+      <c r="F8" s="20">
+        <v>678</v>
+      </c>
+      <c r="G8" s="20">
         <v>2</v>
       </c>
-      <c r="H8" s="41">
-        <v>127.25</v>
+      <c r="H8" s="20">
+        <v>1149.5</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3997,7 +3962,8 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/11210-김태호.xlsx
+++ b/11210-김태호.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,23 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="제1작업" sheetId="1" r:id="rId1"/>
     <sheet name="제2작업" sheetId="2" r:id="rId2"/>
-    <sheet name="제3작업" sheetId="3" r:id="rId3"/>
-    <sheet name="제4작업" sheetId="5" r:id="rId4"/>
+    <sheet name="제3작업" sheetId="10" r:id="rId3"/>
+    <sheet name="제4작업" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$15</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
-    <definedName name="분류">제1작업!$D$5:$D$12</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$13:$B$15</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$H$18</definedName>
+    <definedName name="부서명">제1작업!$D$5:$D$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="29" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,250 +36,209 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
-  <si>
-    <t>관리코드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>하스스톤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>피파 온라인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>크로스파이어</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>림월드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>리그 오브 레전드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>월드 오브 탱크</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>던전 앤 파이터</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>메이플스토리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>역할수행</t>
-  </si>
-  <si>
-    <t>역할수행</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아케이드</t>
-  </si>
-  <si>
-    <t>아케이드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아케이드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시뮬레이션</t>
-  </si>
-  <si>
-    <t>시뮬레이션</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시뮬레이션</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아케이드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>역할수행</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>역할수행</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발사</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>블리자드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스피어헤드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스마일게이트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>루데온스튜디오</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아리엇게임즈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>워게이밍넷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>네오플</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>위젯스튜디오</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수익금
-(백만 달러)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>만족도</t>
-  </si>
-  <si>
-    <t>만족도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스 시작일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스
-순서</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작연도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>최고 수익금(백만 달러)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아케이드 게임의 평균 수익금(백만 달러)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>역할수행 게임의 만족도 합계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C14-9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S81-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F57-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M32-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M29-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M62-9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R55-5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M43-4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="50">
+  <si>
+    <t>입사일자</t>
+  </si>
+  <si>
+    <t>입사일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이연옥</t>
+  </si>
+  <si>
+    <t>이연옥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이민주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강준희</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최현아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최은석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한승현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서명</t>
+  </si>
+  <si>
+    <t>부서명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마케팅부</t>
+  </si>
+  <si>
+    <t>마케팅부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회계과</t>
+  </si>
+  <si>
+    <t>회계과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획부</t>
+  </si>
+  <si>
+    <t>기획부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마케팅부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회계과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상반기
+고과점수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하반기
+고과점수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>승진
+시험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원들의 상반기 고과점수 평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016년 이후(해당연도 포함)입사자 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마케팅부의 승진시험 평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고과점수
+합계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마케팅부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회계과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>총합계</t>
   </si>
   <si>
-    <t>개수 : 게임명</t>
-  </si>
-  <si>
-    <t>평균 : 수익금(백만 달러)</t>
-  </si>
-  <si>
-    <t>4.1-4.4</t>
-  </si>
-  <si>
-    <t>4.4-4.7</t>
-  </si>
-  <si>
-    <t>4.7-5</t>
-  </si>
-  <si>
-    <t>***</t>
-  </si>
-  <si>
-    <t>&lt;&gt;시뮬레이션</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M32-2</t>
+    <t>2015년</t>
+  </si>
+  <si>
+    <t>2016년</t>
+  </si>
+  <si>
+    <t>2017년</t>
+  </si>
+  <si>
+    <t>개수 : 직급</t>
+  </si>
+  <si>
+    <t>평균 : 승진시험</t>
+  </si>
+  <si>
+    <t>**</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="General&quot;점&quot;"/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="180" formatCode="#0&quot;점&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -341,6 +300,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -460,6 +432,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
         <color indexed="64"/>
@@ -467,12 +497,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal style="thin">
         <color indexed="64"/>
       </diagonal>
@@ -484,10 +512,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal style="thin">
@@ -526,7 +552,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -535,22 +561,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -570,19 +583,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -591,150 +591,249 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="49">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -757,7 +856,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -785,8 +884,7 @@
         <name val="굴림"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="176" formatCode="General&quot;점&quot;"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -818,7 +916,41 @@
         <name val="굴림"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="176" formatCode="General&quot;점&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="General&quot;점&quot;"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -888,6 +1020,75 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -911,7 +1112,7 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -933,41 +1134,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
-        <name val="굴림"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
@@ -1004,31 +1174,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
-              <a:t>역할수행</a:t>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1"/>
+              <a:t>마케팅부 및 기획부 고과점수</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>/</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
-              <a:t>아케이드 게임 현황</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+            <a:endParaRPr lang="ko-KR" sz="2000" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1050,15 +1212,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -1074,22 +1236,14 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>제1작업!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>만족도</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>상반기 고과점수</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1097,130 +1251,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(제1작업!$C$5:$C$7,제1작업!$C$10:$C$12)</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>하스스톤</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>피파 온라인</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>크로스파이어</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>월드 오브 탱크</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>던전 앤 파이터</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>메이플스토리</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(제1작업!$G$5:$G$7,제1작업!$G$10:$G$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General"점"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-51F3-41FA-9B83-9D2F6443919A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:axId val="319557136"/>
-        <c:axId val="319557552"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>수익금(백만 달러)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-498A-4C5F-BAFA-BF4819B397F9}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
+            <c:numFmt formatCode="General&quot;점&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1235,15 +1267,15 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
+                    <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
@@ -1251,13 +1283,15 @@
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1278,53 +1312,158 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(제1작업!$C$5:$C$7,제1작업!$C$10:$C$12)</c:f>
+              <c:f>(제1작업!$C$5,제1작업!$C$7:$C$9,제1작업!$C$11:$C$12)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>하스스톤</c:v>
+                  <c:v>이연옥</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>피파 온라인</c:v>
+                  <c:v>이민주</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>크로스파이어</c:v>
+                  <c:v>강준희</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>월드 오브 탱크</c:v>
+                  <c:v>최현아</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>던전 앤 파이터</c:v>
+                  <c:v>최은석</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>메이플스토리</c:v>
+                  <c:v>한승현</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(제1작업!$F$5:$F$7,제1작업!$F$10:$F$12)</c:f>
+              <c:f>(제1작업!$F$5,제1작업!$F$7:$F$9,제1작업!$F$11:$F$12)</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:formatCode>General"점"</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>219</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>163</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1400</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>471</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>284</c:v>
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1B8-4C25-A018-F64DE520EB56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="174678991"/>
+        <c:axId val="174677743"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>하반기 고과점수</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5,제1작업!$C$7:$C$9,제1작업!$C$11:$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>이연옥</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>이민주</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>강준희</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>최현아</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>최은석</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>한승현</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$G$5,제1작업!$G$7:$G$9,제1작업!$G$11:$G$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General"점"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1332,7 +1471,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-51F3-41FA-9B83-9D2F6443919A}"/>
+              <c16:uniqueId val="{00000001-A1B8-4C25-A018-F64DE520EB56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1346,11 +1485,68 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="318845168"/>
-        <c:axId val="409101024"/>
+        <c:axId val="174672335"/>
+        <c:axId val="174684399"/>
       </c:lineChart>
+      <c:valAx>
+        <c:axId val="174677743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General&quot;점&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="174678991"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
       <c:catAx>
-        <c:axId val="319557136"/>
+        <c:axId val="174678991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,7 +1560,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1375,22 +1571,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319557552"/>
+        <c:crossAx val="174677743"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1398,25 +1594,13 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319557552"/>
+        <c:axId val="174684399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General&quot;점&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="General&quot;점&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1424,7 +1608,7 @@
           <a:noFill/>
           <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:ln>
           <a:effectLst/>
@@ -1434,72 +1618,28 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319557136"/>
+        <c:crossAx val="174672335"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="409101024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="318845168"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="400"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="318845168"/>
+        <c:axId val="174672335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1509,7 +1649,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="409101024"/>
+        <c:crossAx val="174684399"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1528,16 +1668,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.35917373474632697"/>
-          <c:y val="0.92638165875396927"/>
-          <c:w val="0.26742717751821726"/>
-          <c:h val="6.6436119224885556E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1551,15 +1682,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -1592,7 +1723,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ko-KR"/>
     </a:p>
@@ -2173,40 +2307,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>35093</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>25065</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>75198</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>145381</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="육각형 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="양쪽 모서리가 둥근 사각형 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="160422" y="25065"/>
-          <a:ext cx="4727408" cy="461211"/>
+          <a:off x="152400" y="38100"/>
+          <a:ext cx="4267200" cy="666750"/>
         </a:xfrm>
-        <a:prstGeom prst="hexagon">
+        <a:prstGeom prst="round2SameRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="FFFF00"/>
         </a:solidFill>
         <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
             <a:prstClr val="black">
               <a:alpha val="40000"/>
             </a:prstClr>
@@ -2235,6 +2363,16 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>2020</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="2400" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -2242,8 +2380,25 @@
               <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
             </a:rPr>
-            <a:t>온라인 게임 수익 현황</a:t>
+            <a:t>년 우리물산 인사고과표</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2251,26 +2406,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>20051</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>686804</xdr:colOff>
+      <xdr:colOff>634786</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>151146</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2290,8 +2439,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5479383" y="20051"/>
-          <a:ext cx="2356184" cy="471990"/>
+          <a:off x="4486276" y="171450"/>
+          <a:ext cx="2273085" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2320,13 +2469,7 @@
     <xdr:ext cx="9306393" cy="6081947"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="차트 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -2350,39 +2493,31 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.75469</cdr:x>
-      <cdr:y>0.11822</cdr:y>
+      <cdr:x>0.4505</cdr:x>
+      <cdr:y>0.12837</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.89085</cdr:x>
-      <cdr:y>0.20622</cdr:y>
+      <cdr:x>0.5906</cdr:x>
+      <cdr:y>0.19384</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="말풍선: 모서리가 둥근 사각형 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8AF18F-35BE-4AFC-BAA1-9DC12A4F72A0}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
+        <cdr:cNvPr id="2" name="모서리가 둥근 사각형 설명선 1"/>
         <cdr:cNvSpPr/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6063935" y="627141"/>
-          <a:ext cx="1093961" cy="466819"/>
+          <a:off x="4192561" y="780738"/>
+          <a:ext cx="1303832" cy="398176"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -67161"/>
-            <a:gd name="adj2" fmla="val 90783"/>
+            <a:gd name="adj1" fmla="val 121063"/>
+            <a:gd name="adj2" fmla="val 23284"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
       </cdr:spPr>
       <cdr:style>
         <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
@@ -2401,18 +2536,9 @@
         </a:fontRef>
       </cdr:style>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" anchor="ctr"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>최다</a:t>
-          </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US">
               <a:solidFill>
@@ -2421,20 +2547,23 @@
               <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t>상반기 최고 점수</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>수익금</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:endParaRPr lang="ko-KR">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
+            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
           </a:endParaRPr>
         </a:p>
       </cdr:txBody>
@@ -2444,53 +2573,54 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="45055.644522106479" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Windows 사용자" refreshedDate="45057.425352777776" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
   <cacheSource type="worksheet">
     <worksheetSource ref="B4:H12" sheet="제1작업"/>
   </cacheSource>
   <cacheFields count="7">
-    <cacheField name="관리코드" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="게임명" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="분류" numFmtId="0">
-      <sharedItems count="3">
-        <s v="역할수행"/>
-        <s v="아케이드"/>
-        <s v="시뮬레이션"/>
+    <cacheField name="입사일자" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-01-09T00:00:00" maxDate="2017-08-10T00:00:00" count="8">
+        <d v="2016-07-09T00:00:00"/>
+        <d v="2017-08-09T00:00:00"/>
+        <d v="2015-12-23T00:00:00"/>
+        <d v="2016-09-22T00:00:00"/>
+        <d v="2015-01-09T00:00:00"/>
+        <d v="2015-05-01T00:00:00"/>
+        <d v="2016-04-17T00:00:00"/>
+        <d v="2017-03-27T00:00:00"/>
       </sharedItems>
-    </cacheField>
-    <cacheField name="개발사" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="수익금_x000a_(백만 달러)" numFmtId="41">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="163" maxValue="2120"/>
-    </cacheField>
-    <cacheField name="만족도" numFmtId="176">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.2" maxValue="4.9000000000000004" count="7">
-        <n v="4.4000000000000004"/>
-        <n v="4.2"/>
-        <n v="4.8"/>
-        <n v="4.5"/>
-        <n v="4.3"/>
-        <n v="4.9000000000000004"/>
-        <n v="4.5999999999999996"/>
-      </sharedItems>
-      <fieldGroup base="5">
-        <rangePr autoStart="0" autoEnd="0" startNum="4.0999999999999996" endNum="5" groupInterval="0.3"/>
+      <fieldGroup base="0">
+        <rangePr groupBy="years" startDate="2015-01-09T00:00:00" endDate="2017-08-10T00:00:00"/>
         <groupItems count="5">
-          <s v="&lt;4.1"/>
-          <s v="4.1-4.4"/>
-          <s v="4.4-4.7"/>
-          <s v="4.7-5"/>
-          <s v="&gt;5"/>
+          <s v="&lt;2015-01-09"/>
+          <s v="2015년"/>
+          <s v="2016년"/>
+          <s v="2017년"/>
+          <s v="&gt;2017-08-10"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
-    <cacheField name="서비스 시작일" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2003-04-29T00:00:00" maxDate="2014-01-15T00:00:00"/>
+    <cacheField name="직원명" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="부서명" numFmtId="0">
+      <sharedItems count="3">
+        <s v="마케팅부"/>
+        <s v="회계과"/>
+        <s v="기획부"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="직급" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="상반기_x000a_고과점수" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="45" maxValue="88"/>
+    </cacheField>
+    <cacheField name="하반기_x000a_고과점수" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="48" maxValue="88"/>
+    </cacheField>
+    <cacheField name="승진_x000a_시험" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="52" maxValue="82"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2504,97 +2634,85 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
   <r>
-    <s v="C14-9"/>
-    <s v="하스스톤"/>
     <x v="0"/>
-    <s v="블리자드"/>
-    <n v="219"/>
+    <s v="이연옥"/>
     <x v="0"/>
-    <d v="2014-01-14T00:00:00"/>
+    <s v="사원"/>
+    <n v="84"/>
+    <n v="66"/>
+    <n v="80"/>
   </r>
   <r>
-    <s v="S81-2"/>
-    <s v="피파 온라인"/>
     <x v="1"/>
-    <s v="스피어헤드"/>
-    <n v="163"/>
+    <s v="김태열"/>
     <x v="1"/>
-    <d v="2012-12-18T00:00:00"/>
+    <s v="부장"/>
+    <n v="45"/>
+    <n v="85"/>
+    <n v="73"/>
   </r>
   <r>
-    <s v="F57-1"/>
-    <s v="크로스파이어"/>
-    <x v="1"/>
-    <s v="스마일게이트"/>
-    <n v="1400"/>
     <x v="2"/>
-    <d v="2007-05-03T00:00:00"/>
+    <s v="이민주"/>
+    <x v="2"/>
+    <s v="사원"/>
+    <n v="66"/>
+    <n v="88"/>
+    <n v="63"/>
   </r>
   <r>
-    <s v="M32-2"/>
-    <s v="림월드"/>
-    <x v="2"/>
-    <s v="루데온스튜디오"/>
-    <n v="179"/>
     <x v="3"/>
-    <d v="2013-11-04T00:00:00"/>
+    <s v="강준희"/>
+    <x v="0"/>
+    <s v="주임"/>
+    <n v="79"/>
+    <n v="55"/>
+    <n v="66"/>
   </r>
   <r>
-    <s v="M29-1"/>
-    <s v="리그 오브 레전드"/>
+    <x v="4"/>
+    <s v="최현아"/>
     <x v="2"/>
-    <s v="아리엇게임즈"/>
-    <n v="2120"/>
-    <x v="4"/>
-    <d v="2009-10-27T00:00:00"/>
+    <s v="부장"/>
+    <n v="75"/>
+    <n v="68"/>
+    <n v="82"/>
   </r>
   <r>
-    <s v="M62-9"/>
-    <s v="월드 오브 탱크"/>
+    <x v="5"/>
+    <s v="박진석"/>
     <x v="1"/>
-    <s v="워게이밍넷"/>
-    <n v="471"/>
-    <x v="5"/>
-    <d v="2010-08-12T00:00:00"/>
+    <s v="사원"/>
+    <n v="74"/>
+    <n v="55"/>
+    <n v="52"/>
   </r>
   <r>
-    <s v="R55-5"/>
-    <s v="던전 앤 파이터"/>
+    <x v="6"/>
+    <s v="최은석"/>
     <x v="0"/>
-    <s v="네오플"/>
-    <n v="1600"/>
-    <x v="1"/>
-    <d v="2005-08-10T00:00:00"/>
+    <s v="과장"/>
+    <n v="88"/>
+    <n v="48"/>
+    <n v="76"/>
   </r>
   <r>
-    <s v="M43-4"/>
-    <s v="메이플스토리"/>
-    <x v="0"/>
-    <s v="위젯스튜디오"/>
-    <n v="284"/>
-    <x v="6"/>
-    <d v="2003-04-29T00:00:00"/>
+    <x v="7"/>
+    <s v="한승현"/>
+    <x v="2"/>
+    <s v="과장"/>
+    <n v="55"/>
+    <n v="77"/>
+    <n v="69"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="***" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="만족도" colHeaderCaption="분류">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블6" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="입사일자" colHeaderCaption="부서명">
   <location ref="B2:H8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="41" showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="176" showAll="0">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
       <items count="6">
         <item x="0"/>
         <item x="1"/>
@@ -2604,10 +2722,22 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="176" showAll="0"/>
+    <pivotField numFmtId="176" showAll="0"/>
+    <pivotField dataField="1" numFmtId="176" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="5"/>
+    <field x="0"/>
   </rowFields>
   <rowItems count="4">
     <i>
@@ -2651,91 +2781,92 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="개수 : 게임명" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="평균 : 수익금(백만 달러)" fld="4" subtotal="average" baseField="5" baseItem="0"/>
+    <dataField name="개수 : 직급" fld="3" subtotal="count" baseField="0" baseItem="0" numFmtId="179"/>
+    <dataField name="평균 : 승진시험" fld="6" subtotal="average" baseField="8" baseItem="1" numFmtId="179"/>
   </dataFields>
-  <formats count="7">
-    <format dxfId="14">
+  <formats count="9">
+    <format dxfId="36">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="35">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="3">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="34">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="33">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="28">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
             <x v="0"/>
             <x v="1"/>
           </reference>
+          <reference field="0" count="1">
+            <x v="2"/>
+          </reference>
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="3"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="21">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
-          <reference field="4294967294" count="1" selected="0">
+          <reference field="4294967294" count="2" selected="0">
             <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1">
+            <x v="3"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="5" count="1">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="20">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
-          <reference field="4294967294" count="1" selected="0">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1">
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="5" count="1">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="19">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="2"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="3"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
-    </format>
-    <format dxfId="9">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="8">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -2743,23 +2874,23 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E20" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
-  <autoFilter ref="B18:E20"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="관리코드" dataDxfId="4"/>
-    <tableColumn id="2" name="게임명" dataDxfId="3"/>
-    <tableColumn id="3" name="수익금_x000a_(백만 달러)" dataDxfId="2" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="4" name="서비스 시작일" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:H23" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="46" tableBorderDxfId="47" totalsRowBorderDxfId="45">
+  <autoFilter ref="B18:H23"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="입사일자" dataDxfId="44"/>
+    <tableColumn id="2" name="직원명" dataDxfId="43"/>
+    <tableColumn id="3" name="부서명" dataDxfId="42"/>
+    <tableColumn id="4" name="직급" dataDxfId="41"/>
+    <tableColumn id="5" name="상반기_x000a_고과점수" dataDxfId="40"/>
+    <tableColumn id="6" name="하반기_x000a_고과점수" dataDxfId="39"/>
+    <tableColumn id="7" name="승진_x000a_시험" dataDxfId="38"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3026,670 +3157,755 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J19"/>
+  <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="15.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="14.75" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="1.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
+    <col min="4" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="5" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:10" ht="27" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11" t="s">
+    <row r="1" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="J4" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="5">
+        <v>42560</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="20">
+        <v>84</v>
+      </c>
+      <c r="G5" s="20">
+        <v>66</v>
+      </c>
+      <c r="H5" s="38">
+        <v>80</v>
+      </c>
+      <c r="I5" s="2">
+        <f>_xlfn.RANK.EQ(H5,$H$5:$H$12)</f>
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="16">
-        <v>219</v>
-      </c>
-      <c r="G5" s="15">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H5" s="9">
-        <v>41653</v>
-      </c>
-      <c r="I5" s="6" t="str">
-        <f>IF(_xlfn.RANK.EQ(H5,$H$5:$H$12,1)&lt;=3,_xlfn.RANK.EQ(H5,$H$5:$H$12,1),"")</f>
-        <v/>
-      </c>
-      <c r="J5" s="5" t="str">
-        <f>YEAR(H5:H12)&amp;"년"</f>
-        <v>2014년</v>
+      <c r="J5" s="21" t="str">
+        <f>IF(AND(YEAR(B5:B12)&lt;=2016,H5&gt;=80),"승진","")</f>
+        <v>승진</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="16">
-        <v>163</v>
-      </c>
-      <c r="G6" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="H6" s="9">
-        <v>41261</v>
-      </c>
-      <c r="I6" s="22" t="str">
-        <f t="shared" ref="I6:I12" si="0">IF(_xlfn.RANK.EQ(H6,$H$5:$H$12,1)&lt;=3,_xlfn.RANK.EQ(H6,$H$5:$H$12,1),"")</f>
+      <c r="B6" s="5">
+        <v>42956</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="20">
+        <v>45</v>
+      </c>
+      <c r="G6" s="20">
+        <v>85</v>
+      </c>
+      <c r="H6" s="38">
+        <v>73</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" ref="I6:I12" si="0">_xlfn.RANK.EQ(H6,$H$5:$H$12)</f>
+        <v>4</v>
+      </c>
+      <c r="J6" s="21" t="str">
+        <f t="shared" ref="J6:J12" si="1">IF(AND(YEAR(B6:B13)&lt;=2016,H6&gt;=80),"승진","")</f>
         <v/>
-      </c>
-      <c r="J6" s="5" t="str">
-        <f t="shared" ref="J6:J12" si="1">YEAR(H6:H13)&amp;"년"</f>
-        <v>2012년</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="16">
-        <v>1400</v>
-      </c>
-      <c r="G7" s="15">
-        <v>4.8</v>
-      </c>
-      <c r="H7" s="9">
-        <v>39205</v>
-      </c>
-      <c r="I7" s="22">
+      <c r="B7" s="5">
+        <v>42361</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="20">
+        <v>66</v>
+      </c>
+      <c r="G7" s="20">
+        <v>88</v>
+      </c>
+      <c r="H7" s="38">
+        <v>63</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J7" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>42635</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="20">
+        <v>79</v>
+      </c>
+      <c r="G8" s="20">
+        <v>55</v>
+      </c>
+      <c r="H8" s="38">
+        <v>66</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J8" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>42013</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="20">
+        <v>75</v>
+      </c>
+      <c r="G9" s="20">
+        <v>68</v>
+      </c>
+      <c r="H9" s="38">
+        <v>82</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>승진</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>42125</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="20">
+        <v>74</v>
+      </c>
+      <c r="G10" s="20">
+        <v>55</v>
+      </c>
+      <c r="H10" s="38">
+        <v>52</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J10" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>42477</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="20">
+        <v>88</v>
+      </c>
+      <c r="G11" s="20">
+        <v>48</v>
+      </c>
+      <c r="H11" s="38">
+        <v>76</v>
+      </c>
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J7" s="5" t="str">
+      <c r="J11" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>2007년</v>
+        <v/>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="4" t="s">
+    <row r="12" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="5">
+        <v>42821</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="20">
+        <v>55</v>
+      </c>
+      <c r="G12" s="20">
+        <v>77</v>
+      </c>
+      <c r="H12" s="38">
+        <v>69</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="16">
-        <v>179</v>
-      </c>
-      <c r="G8" s="15">
-        <v>4.5</v>
-      </c>
-      <c r="H8" s="9">
-        <v>41582</v>
-      </c>
-      <c r="I8" s="22" t="str">
-        <f t="shared" si="0"/>
+      <c r="J12" s="21" t="str">
+        <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="J8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>2013년</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="16">
-        <v>2120</v>
-      </c>
-      <c r="G9" s="15">
-        <v>4.3</v>
-      </c>
-      <c r="H9" s="9">
-        <v>40113</v>
-      </c>
-      <c r="I9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>2009년</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="16">
-        <v>471</v>
-      </c>
-      <c r="G10" s="15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H10" s="9">
-        <v>40402</v>
-      </c>
-      <c r="I10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>2010년</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="16">
-        <v>1600</v>
-      </c>
-      <c r="G11" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="H11" s="9">
-        <v>38574</v>
-      </c>
-      <c r="I11" s="22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>2005년</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="16">
-        <v>284</v>
-      </c>
-      <c r="G12" s="15">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H12" s="9">
-        <v>37740</v>
-      </c>
-      <c r="I12" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>2003년</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11">
+        <f>DSUM(B4:H12,5,E4:E5)/DCOUNTA(B4:H12,4,E4:E5)</f>
+        <v>74.666666666666671</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="23">
-        <f>MAX(F5:F12)</f>
-        <v>2120</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="26" t="s">
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="4">
+        <f>ROUNDDOWN(DAVERAGE(B4:H12,7,D4:D5),-1)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="5">
-        <f>DSUM(B4:H12,6,D4:D5)</f>
-        <v>13.200000000000001</v>
+      <c r="J14" s="37">
+        <f>VLOOKUP(H14,C4:H12,4,0)+VLOOKUP(H14,C4:H12,5,0)</f>
+        <v>150</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="24">
-        <f>SUMIF(분류,D6,F5:F12)/COUNTIF(분류,D6)</f>
-        <v>678</v>
-      </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="8" t="str">
-        <f>VLOOKUP(H14,B5:H12,4,FALSE)</f>
-        <v>루데온스튜디오</v>
-      </c>
-    </row>
-    <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:I13"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B5:J5 J6:J13 B6:I12">
-    <cfRule type="expression" dxfId="16" priority="1">
-      <formula>$F5&gt;=1000</formula>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B5:J12">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$H5&gt;=70</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
-      <formula1>$B$5:$B$12</formula1>
+      <formula1>$C$5:$C$12</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="J6" formulaRange="1"/>
-  </ignoredErrors>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H20"/>
+  <dimension ref="B1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="1"/>
+    <col min="6" max="8" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11" t="s">
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>35</v>
+      <c r="H2" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="16">
-        <v>219</v>
-      </c>
-      <c r="G3" s="15">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H3" s="9">
-        <v>41653</v>
+      <c r="B3" s="5">
+        <v>42560</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="20">
+        <v>84</v>
+      </c>
+      <c r="G3" s="20">
+        <v>66</v>
+      </c>
+      <c r="H3" s="20">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="16">
-        <v>163</v>
-      </c>
-      <c r="G4" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="H4" s="9">
-        <v>41261</v>
+      <c r="B4" s="5">
+        <v>42956</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="20">
+        <v>45</v>
+      </c>
+      <c r="G4" s="20">
+        <v>85</v>
+      </c>
+      <c r="H4" s="20">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="16">
-        <v>1400</v>
-      </c>
-      <c r="G5" s="15">
-        <v>4.8</v>
-      </c>
-      <c r="H5" s="9">
-        <v>39205</v>
+      <c r="B5" s="5">
+        <v>42361</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="20">
+        <v>66</v>
+      </c>
+      <c r="G5" s="20">
+        <v>88</v>
+      </c>
+      <c r="H5" s="20">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="5">
+        <v>42635</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="16">
-        <v>179</v>
-      </c>
-      <c r="G6" s="15">
-        <v>4.5</v>
-      </c>
-      <c r="H6" s="9">
-        <v>41582</v>
+      <c r="F6" s="20">
+        <v>79</v>
+      </c>
+      <c r="G6" s="20">
+        <v>55</v>
+      </c>
+      <c r="H6" s="20">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="B7" s="5">
+        <v>42013</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="16">
-        <v>2120</v>
-      </c>
-      <c r="G7" s="15">
-        <v>4.3</v>
-      </c>
-      <c r="H7" s="9">
-        <v>40113</v>
+      <c r="F7" s="20">
+        <v>75</v>
+      </c>
+      <c r="G7" s="20">
+        <v>68</v>
+      </c>
+      <c r="H7" s="20">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="B8" s="5">
+        <v>42125</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="16">
-        <v>471</v>
-      </c>
-      <c r="G8" s="15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H8" s="9">
-        <v>40402</v>
+      <c r="F8" s="20">
+        <v>74</v>
+      </c>
+      <c r="G8" s="20">
+        <v>55</v>
+      </c>
+      <c r="H8" s="20">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="B9" s="5">
+        <v>42477</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="16">
-        <v>1600</v>
-      </c>
-      <c r="G9" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="H9" s="9">
-        <v>38574</v>
+      <c r="F9" s="20">
+        <v>88</v>
+      </c>
+      <c r="G9" s="20">
+        <v>48</v>
+      </c>
+      <c r="H9" s="20">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="16">
-        <v>284</v>
-      </c>
-      <c r="G10" s="15">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H10" s="9">
-        <v>37740</v>
+      <c r="B10" s="5">
+        <v>42821</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="20">
+        <v>55</v>
+      </c>
+      <c r="G10" s="20">
+        <v>77</v>
+      </c>
+      <c r="H10" s="20">
+        <v>69</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>32</v>
+    <row r="12" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="B18" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="36" t="s">
+    <row r="18" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="C18" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="38" t="s">
-        <v>35</v>
+      <c r="H18" s="27" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="6" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="22">
+        <v>42560</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="16">
-        <v>1400</v>
-      </c>
-      <c r="E19" s="34">
-        <v>39205</v>
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="20">
+        <v>84</v>
+      </c>
+      <c r="G19" s="20">
+        <v>66</v>
+      </c>
+      <c r="H19" s="23">
+        <v>80</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="41">
-        <v>1600</v>
-      </c>
-      <c r="E20" s="42">
-        <v>38574</v>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="22">
+        <v>42956</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="20">
+        <v>45</v>
+      </c>
+      <c r="G20" s="20">
+        <v>85</v>
+      </c>
+      <c r="H20" s="23">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="22">
+        <v>42635</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="20">
+        <v>79</v>
+      </c>
+      <c r="G21" s="20">
+        <v>55</v>
+      </c>
+      <c r="H21" s="23">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="22">
+        <v>42125</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="20">
+        <v>74</v>
+      </c>
+      <c r="G22" s="20">
+        <v>55</v>
+      </c>
+      <c r="H22" s="23">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="28">
+        <v>42477</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="29">
+        <v>88</v>
+      </c>
+      <c r="G23" s="29">
+        <v>48</v>
+      </c>
+      <c r="H23" s="30">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:H10">
-    <cfRule type="expression" dxfId="15" priority="1">
-      <formula>$F3&gt;=1000</formula>
+    <cfRule type="expression" dxfId="48" priority="1">
+      <formula>$H3&gt;=70</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3701,260 +3917,166 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J19"/>
+  <dimension ref="B2:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="C2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2"/>
-      <c r="J2"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="31"/>
+      <c r="C2" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="31" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="32"/>
-      <c r="I3"/>
-      <c r="J3"/>
+      <c r="H3" s="33"/>
     </row>
-    <row r="4" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="19" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="36">
+        <v>1</v>
+      </c>
+      <c r="D5" s="36">
         <v>52</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
+      <c r="E5" s="36">
+        <v>2</v>
+      </c>
+      <c r="F5" s="36">
+        <v>72.5</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="20">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="36">
+        <v>3</v>
+      </c>
+      <c r="H6" s="36">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="36">
         <v>1</v>
       </c>
-      <c r="D5" s="20">
-        <v>1600</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="D7" s="36">
+        <v>73</v>
+      </c>
+      <c r="E7" s="36">
         <v>1</v>
       </c>
-      <c r="F5" s="20">
-        <v>163</v>
-      </c>
-      <c r="G5" s="20">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20">
-        <v>2120</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5"/>
+      <c r="F7" s="36">
+        <v>69</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="20">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="36">
         <v>2</v>
       </c>
-      <c r="D6" s="20">
-        <v>251.5</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="20">
-        <v>1</v>
-      </c>
-      <c r="H6" s="20">
-        <v>179</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6"/>
-    </row>
-    <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="20">
-        <v>2</v>
-      </c>
-      <c r="F7" s="20">
-        <v>935.5</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7"/>
-    </row>
-    <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="20">
+      <c r="D8" s="36">
+        <v>62.5</v>
+      </c>
+      <c r="E8" s="36">
         <v>3</v>
       </c>
-      <c r="D8" s="20">
-        <v>701</v>
-      </c>
-      <c r="E8" s="20">
+      <c r="F8" s="36">
+        <v>71.333333333333329</v>
+      </c>
+      <c r="G8" s="36">
         <v>3</v>
       </c>
-      <c r="F8" s="20">
-        <v>678</v>
-      </c>
-      <c r="G8" s="20">
-        <v>2</v>
-      </c>
-      <c r="H8" s="20">
-        <v>1149.5</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
+      <c r="H8" s="36">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3962,8 +4084,7 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>